--- a/Data team working files 2022/Rigth-to-Food_Dataset.xlsx
+++ b/Data team working files 2022/Rigth-to-Food_Dataset.xlsx
@@ -8,14 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kates\Dropbox\GitHub\FSCountdownIniative\Data team working files 2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B16C2207-93DC-45B6-BC8B-02E40374CF3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E333E063-971E-476E-B0C6-867DA30F26B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1780" yWindow="1780" windowWidth="14400" windowHeight="7270" xr2:uid="{7AF86670-2164-4E94-8CDE-99E58814A19C}"/>
+    <workbookView xWindow="28680" yWindow="7620" windowWidth="24240" windowHeight="13020" activeTab="1" xr2:uid="{7AF86670-2164-4E94-8CDE-99E58814A19C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <pivotCaches>
+    <pivotCache cacheId="4" r:id="rId4"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="171">
   <si>
     <t>country</t>
   </si>
@@ -539,6 +544,15 @@
   </si>
   <si>
     <t>Zambia</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>Number of countries</t>
+  </si>
+  <si>
+    <t>Contitutional mechanism present</t>
   </si>
 </sst>
 </file>
@@ -582,9 +596,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -600,6 +619,2397 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[Rigth-to-Food_Dataset.xlsx]Sheet3!PivotTable2</c:name>
+    <c:fmtId val="0"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet3!$A$4:$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Directive principles of state policy</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Explicit protection of the right to adequate food</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Implicit protection of the right to adequate food</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>National status of international obligations</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Other pertinent provisions for the realization of the right to adequate food</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$B$4:$B$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>123</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0003-4286-A104-893BC6E1EA7F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1399335168"/>
+        <c:axId val="1399312704"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1399335168"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Constitutional mechanism</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1399312704"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1399312704"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of Countries</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1399335168"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>857250</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>138112</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{434E1626-B1F2-C8E0-33C4-D631321D5CAD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Kate Schneider" refreshedDate="44706.469041203702" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="308" xr:uid="{46E6D602-8597-454C-82C8-E128F29995F0}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:B309" sheet="Sheet1"/>
+  </cacheSource>
+  <cacheFields count="2">
+    <cacheField name="country" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="constitutional_recognition" numFmtId="0">
+      <sharedItems count="5">
+        <s v="Explicit protection of the right to adequate food"/>
+        <s v="Implicit protection of the right to adequate food"/>
+        <s v="Directive principles of state policy"/>
+        <s v="National status of international obligations"/>
+        <s v="Other pertinent provisions for the realization of the right to adequate food"/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="308">
+  <r>
+    <s v="Belarus"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Bolivia"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Brazil"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Colombia"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Costa Rica"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Cuba"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Democratic Republic of Congo"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Ecuador"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Egypt"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Fiji"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Guatemala"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Guyana"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Haiti"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Honduras"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Kenya"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Malawi"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Maldives"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Mexico"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Nepal"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Nicaragua"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Niger"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Panama"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Paraguay"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Philippines"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Republic of Moldova"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="South Africa"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Suriname"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Ukraine"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Zimbabwe"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Armenia"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Belgium"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Bosnia and Herzegovina"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Congo"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Cyprus"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Egypt"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Ethiopia"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Indonesia"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Japan"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Nepal"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Nicaragua"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Panama"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Peru"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Switzerland"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Togo"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Tunisia"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Bangladesh"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="Brazil"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="Burundi"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="Democratic People's Republic of Korea"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="Ecuador"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="Ethiopia"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="Gambia"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="Guatemala"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="Honduras"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="India"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="Iran"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="Ireland"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="Malawi"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="Myanmar"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="Namibia"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="Nicaragua"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="Niger"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="Nigeria"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="Pakistan"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="Panama"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="Papua New Guinea"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="South Sudan"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="Sri Lanka"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="Switzerland"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="Uganda"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="United Republic of Tanzania"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="Venezuela"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="Zimbabwe"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="Afghanistan"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Albania"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Algeria"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Andorra"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Angola"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Argentina"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Armenia"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Austria"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Azerbaijan"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Bahrain"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Belarus"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Benin"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Bolivia"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Bosnia and Herzegovina"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Brazil"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Bulgaria"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Burkina Faso"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Burundi"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Cabo Verde"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Cambodia"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Cameroon"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Central African Republic"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Chad"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Chile"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Colombia"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Comoros"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Congo"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Costa Rica"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Croatia"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Cuba"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Cyprus"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Czechia"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Cote d'Ivoire"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Democratic People's Republic of Korea"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Democratic Republic of Congo"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Djibouti"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Dominican Republic"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Ecuador"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Egypt"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="El Salvador"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Equatorial Guinea"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Estonia"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Ethiopia"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="France"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Georgia"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Germany"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Ghana"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Greece"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Guatemala"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Guinea"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Guinea-Bissau"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Haiti"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Honduras"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Hungary"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Ireland"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Italy"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Japan"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Kazakhstan"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Kenya"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Kuwait"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Kyrgyzstan"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Lithuania"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Luxembourg"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Madagascar"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Malawi"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Maldives"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Mali"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Marshall Islands"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Mauritania"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Mexico"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Mongolia"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Montenegro"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Morocco"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Mozambique"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Namibia"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Netherlands"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Nicaragua"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Niger"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="North Macedonia"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Oman"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Palau"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Paraguay"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Peru"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Poland"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Portugal"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Qatar"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Republic of Korea"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Republic of Moldova"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Romania"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Russian Federation"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Rwanda"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="San Marino"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Saudi Arabia"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Senegal"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Serbia"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Seychelles"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Slovakia"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Slovenia"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="South Africa"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="South Sudan"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Spain"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Sudan"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Switzerland"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Tajikistan"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Timor-Leste"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Togo"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Tunisia"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Turkey"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Turkmenistan"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Ukraine"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Venezuela"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Zimbabwe"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Afghanistan"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="Albania"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="Algeria"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="Andorra"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="Angola"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="Argentina"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="Armenia"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="Azerbaijan"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="Bangladesh"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="Belarus"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="Belize"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="Benin"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="Bhutan"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="Bolivia"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="Bosnia and Herzegovina"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="Brazil"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="Bulgaria"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="Burkina Faso"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="Cabo Verde"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="Cambodia"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="Cameroon"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="Central African Republic"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="Chad"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="China"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="Costa Rica"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="Croatia"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="Czechia"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="Cote d'Ivoire"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="Democratic People's Republic of Korea"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="Democratic Republic of Congo"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="Denmark"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="Dominica"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="Dominican Republic"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="Ecuador"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="Egypt"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="El Salvador"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="Equatorial Guinea"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="Eritrea"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="Eswatini"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="Finland"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="Gabon"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="Georgia"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="Germany"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="Ghana"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="Greece"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="Guatemala"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="Guinea"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="Guinea-Bissau"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="Haiti"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="Honduras"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="Hungary"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="Iceland"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="India"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="Indonesia"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="Iran"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="Iraq"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="Italy"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="Kazakhstan"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="Kenya"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="Kuwait"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="Kyrgyzstan"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="Lao People's Democratic Republic"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="Latvia"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="Lesotho"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="Liberia"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="Libya"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="Lithuania"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="Luxembourg"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="Madagascar"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="Mali"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="Mexico"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="Mongolia"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="Mozambique"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="Nepal"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="Netherlands"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="North Macedonia"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="Norway"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="Oman"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="Paraguay"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="Peru"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="Philippines"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="Poland"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="Portugal"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="Qatar"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="Republic of Korea"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="Republic of Moldova"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="Romania"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="Russian Federation"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="Rwanda"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="Sao Tome and Principe"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="Saudi Arabia"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="Senegal"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="Serbia"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="Seychelles"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="Sierra Leone"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="Slovakia"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="Somalia"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="South Africa"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="South Sudan"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="Spain"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="Sudan"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="Suriname"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="Sweden"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="Switzerland"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="Syrian Arab Repubic"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="Tajikistan"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="Thailand"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="Timor-Leste"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="Togo"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="Tunisia"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="Turkey"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="Turkmenistan"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="Tuvalu"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="Uganda"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="Ukraine"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="United Arab Emirates"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="Uruguay"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="Uzbekistan "/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="Venezuela"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="Viet Nam"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="Yemen"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="Zambia"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="Zimbabwe"/>
+    <x v="4"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1C305C62-459D-44BA-B0C1-9F2FC2D31454}" name="PivotTable2" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4" rowHeaderCaption="Contitutional mechanism present">
+  <location ref="A3:B9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="2">
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="6">
+        <item x="2"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Number of countries" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="3">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -901,17 +3311,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F1B3A89-4930-444F-AB01-4CC0323E40D6}">
   <dimension ref="A1:B309"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B309" sqref="A1:B309"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.08984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40.90625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="68.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -919,7 +3329,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -927,7 +3337,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -935,7 +3345,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -943,7 +3353,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -951,7 +3361,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -959,7 +3369,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -967,7 +3377,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -975,7 +3385,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -983,7 +3393,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -991,7 +3401,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -999,7 +3409,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -1007,7 +3417,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -1015,7 +3425,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -1023,7 +3433,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -1031,7 +3441,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -1039,7 +3449,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -1047,7 +3457,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -1055,7 +3465,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -1063,7 +3473,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>21</v>
       </c>
@@ -1071,7 +3481,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>22</v>
       </c>
@@ -1079,7 +3489,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>23</v>
       </c>
@@ -1087,7 +3497,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>24</v>
       </c>
@@ -1095,7 +3505,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>25</v>
       </c>
@@ -1103,7 +3513,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>26</v>
       </c>
@@ -1111,7 +3521,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>28</v>
       </c>
@@ -1119,7 +3529,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>27</v>
       </c>
@@ -1127,7 +3537,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>29</v>
       </c>
@@ -1135,7 +3545,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>30</v>
       </c>
@@ -1143,7 +3553,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>31</v>
       </c>
@@ -1151,7 +3561,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>33</v>
       </c>
@@ -1159,7 +3569,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>34</v>
       </c>
@@ -1167,7 +3577,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>35</v>
       </c>
@@ -1175,7 +3585,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>36</v>
       </c>
@@ -1183,7 +3593,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>37</v>
       </c>
@@ -1191,7 +3601,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>11</v>
       </c>
@@ -1199,7 +3609,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>38</v>
       </c>
@@ -1207,7 +3617,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>39</v>
       </c>
@@ -1215,7 +3625,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>40</v>
       </c>
@@ -1223,7 +3633,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>21</v>
       </c>
@@ -1231,7 +3641,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>22</v>
       </c>
@@ -1239,7 +3649,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>24</v>
       </c>
@@ -1247,7 +3657,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>41</v>
       </c>
@@ -1255,7 +3665,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>42</v>
       </c>
@@ -1263,7 +3673,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>43</v>
       </c>
@@ -1271,7 +3681,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>44</v>
       </c>
@@ -1279,7 +3689,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>46</v>
       </c>
@@ -1287,7 +3697,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>5</v>
       </c>
@@ -1295,7 +3705,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>47</v>
       </c>
@@ -1303,7 +3713,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>48</v>
       </c>
@@ -1311,7 +3721,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>10</v>
       </c>
@@ -1319,7 +3729,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>38</v>
       </c>
@@ -1327,7 +3737,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>49</v>
       </c>
@@ -1335,7 +3745,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>13</v>
       </c>
@@ -1343,7 +3753,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>16</v>
       </c>
@@ -1351,7 +3761,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>50</v>
       </c>
@@ -1359,7 +3769,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>51</v>
       </c>
@@ -1367,7 +3777,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>52</v>
       </c>
@@ -1375,7 +3785,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>18</v>
       </c>
@@ -1383,7 +3793,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>53</v>
       </c>
@@ -1391,7 +3801,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>54</v>
       </c>
@@ -1399,7 +3809,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>22</v>
       </c>
@@ -1407,7 +3817,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>23</v>
       </c>
@@ -1415,7 +3825,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>55</v>
       </c>
@@ -1423,7 +3833,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>56</v>
       </c>
@@ -1431,7 +3841,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>24</v>
       </c>
@@ -1439,7 +3849,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>57</v>
       </c>
@@ -1447,7 +3857,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>58</v>
       </c>
@@ -1455,7 +3865,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>59</v>
       </c>
@@ -1463,7 +3873,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>42</v>
       </c>
@@ -1471,7 +3881,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>60</v>
       </c>
@@ -1479,7 +3889,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>61</v>
       </c>
@@ -1487,7 +3897,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>62</v>
       </c>
@@ -1495,7 +3905,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>31</v>
       </c>
@@ -1503,7 +3913,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>64</v>
       </c>
@@ -1511,7 +3921,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>65</v>
       </c>
@@ -1519,7 +3929,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>66</v>
       </c>
@@ -1527,7 +3937,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>67</v>
       </c>
@@ -1535,7 +3945,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>68</v>
       </c>
@@ -1543,7 +3953,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>69</v>
       </c>
@@ -1551,7 +3961,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>33</v>
       </c>
@@ -1559,7 +3969,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>70</v>
       </c>
@@ -1567,7 +3977,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>71</v>
       </c>
@@ -1575,7 +3985,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>72</v>
       </c>
@@ -1583,7 +3993,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>3</v>
       </c>
@@ -1591,7 +4001,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>73</v>
       </c>
@@ -1599,7 +4009,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>4</v>
       </c>
@@ -1607,7 +4017,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>35</v>
       </c>
@@ -1615,7 +4025,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>5</v>
       </c>
@@ -1623,7 +4033,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>74</v>
       </c>
@@ -1631,7 +4041,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>75</v>
       </c>
@@ -1639,7 +4049,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>47</v>
       </c>
@@ -1647,7 +4057,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>76</v>
       </c>
@@ -1655,7 +4065,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>77</v>
       </c>
@@ -1663,7 +4073,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>78</v>
       </c>
@@ -1671,7 +4081,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>79</v>
       </c>
@@ -1679,7 +4089,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>80</v>
       </c>
@@ -1687,7 +4097,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>81</v>
       </c>
@@ -1695,7 +4105,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>6</v>
       </c>
@@ -1703,7 +4113,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>82</v>
       </c>
@@ -1711,7 +4121,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>36</v>
       </c>
@@ -1719,7 +4129,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>7</v>
       </c>
@@ -1727,7 +4137,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>83</v>
       </c>
@@ -1735,7 +4145,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>8</v>
       </c>
@@ -1743,7 +4153,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>37</v>
       </c>
@@ -1751,7 +4161,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>84</v>
       </c>
@@ -1759,7 +4169,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>85</v>
       </c>
@@ -1767,7 +4177,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>48</v>
       </c>
@@ -1775,7 +4185,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>9</v>
       </c>
@@ -1783,7 +4193,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>86</v>
       </c>
@@ -1791,7 +4201,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>87</v>
       </c>
@@ -1799,7 +4209,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>10</v>
       </c>
@@ -1807,7 +4217,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>11</v>
       </c>
@@ -1815,7 +4225,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>88</v>
       </c>
@@ -1823,7 +4233,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>89</v>
       </c>
@@ -1831,7 +4241,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>90</v>
       </c>
@@ -1839,7 +4249,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>38</v>
       </c>
@@ -1847,7 +4257,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>91</v>
       </c>
@@ -1855,7 +4265,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>92</v>
       </c>
@@ -1863,7 +4273,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>93</v>
       </c>
@@ -1871,7 +4281,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>94</v>
       </c>
@@ -1879,7 +4289,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>95</v>
       </c>
@@ -1887,7 +4297,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>13</v>
       </c>
@@ -1895,7 +4305,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>96</v>
       </c>
@@ -1903,7 +4313,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>97</v>
       </c>
@@ -1911,7 +4321,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>15</v>
       </c>
@@ -1919,7 +4329,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>16</v>
       </c>
@@ -1927,7 +4337,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>98</v>
       </c>
@@ -1935,7 +4345,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>52</v>
       </c>
@@ -1943,7 +4353,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>99</v>
       </c>
@@ -1951,7 +4361,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>40</v>
       </c>
@@ -1959,7 +4369,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>100</v>
       </c>
@@ -1967,7 +4377,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>17</v>
       </c>
@@ -1975,7 +4385,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>101</v>
       </c>
@@ -1983,7 +4393,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>102</v>
       </c>
@@ -1991,7 +4401,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>103</v>
       </c>
@@ -1999,7 +4409,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>104</v>
       </c>
@@ -2007,7 +4417,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>105</v>
       </c>
@@ -2015,7 +4425,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>18</v>
       </c>
@@ -2023,7 +4433,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>19</v>
       </c>
@@ -2031,7 +4441,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>106</v>
       </c>
@@ -2039,7 +4449,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>107</v>
       </c>
@@ -2047,7 +4457,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>108</v>
       </c>
@@ -2055,7 +4465,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>20</v>
       </c>
@@ -2063,7 +4473,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>109</v>
       </c>
@@ -2071,7 +4481,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>110</v>
       </c>
@@ -2079,7 +4489,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>111</v>
       </c>
@@ -2087,7 +4497,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>112</v>
       </c>
@@ -2095,7 +4505,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>54</v>
       </c>
@@ -2103,7 +4513,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>113</v>
       </c>
@@ -2111,7 +4521,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>22</v>
       </c>
@@ -2119,7 +4529,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>23</v>
       </c>
@@ -2127,7 +4537,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>114</v>
       </c>
@@ -2135,7 +4545,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>115</v>
       </c>
@@ -2143,7 +4553,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>116</v>
       </c>
@@ -2151,7 +4561,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>25</v>
       </c>
@@ -2159,7 +4569,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>41</v>
       </c>
@@ -2167,7 +4577,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>117</v>
       </c>
@@ -2175,7 +4585,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>118</v>
       </c>
@@ -2183,7 +4593,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>119</v>
       </c>
@@ -2191,7 +4601,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>120</v>
       </c>
@@ -2199,7 +4609,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>28</v>
       </c>
@@ -2207,7 +4617,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>121</v>
       </c>
@@ -2215,7 +4625,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>122</v>
       </c>
@@ -2223,7 +4633,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>123</v>
       </c>
@@ -2231,7 +4641,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>124</v>
       </c>
@@ -2239,7 +4649,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>125</v>
       </c>
@@ -2247,7 +4657,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>126</v>
       </c>
@@ -2255,7 +4665,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>127</v>
       </c>
@@ -2263,7 +4673,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>128</v>
       </c>
@@ -2271,7 +4681,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>129</v>
       </c>
@@ -2279,7 +4689,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>130</v>
       </c>
@@ -2287,7 +4697,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>27</v>
       </c>
@@ -2295,7 +4705,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>58</v>
       </c>
@@ -2303,7 +4713,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>131</v>
       </c>
@@ -2311,7 +4721,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>132</v>
       </c>
@@ -2319,7 +4729,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>42</v>
       </c>
@@ -2327,7 +4737,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>133</v>
       </c>
@@ -2335,7 +4745,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>134</v>
       </c>
@@ -2343,7 +4753,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>43</v>
       </c>
@@ -2351,7 +4761,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>44</v>
       </c>
@@ -2359,7 +4769,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>135</v>
       </c>
@@ -2367,7 +4777,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>136</v>
       </c>
@@ -2375,7 +4785,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>30</v>
       </c>
@@ -2383,7 +4793,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>62</v>
       </c>
@@ -2391,7 +4801,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>31</v>
       </c>
@@ -2399,7 +4809,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>64</v>
       </c>
@@ -2407,7 +4817,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>65</v>
       </c>
@@ -2415,7 +4825,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>66</v>
       </c>
@@ -2423,7 +4833,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>67</v>
       </c>
@@ -2431,7 +4841,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>68</v>
       </c>
@@ -2439,7 +4849,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>69</v>
       </c>
@@ -2447,7 +4857,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>33</v>
       </c>
@@ -2455,7 +4865,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>71</v>
       </c>
@@ -2463,7 +4873,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>46</v>
       </c>
@@ -2471,7 +4881,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>3</v>
       </c>
@@ -2479,7 +4889,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>138</v>
       </c>
@@ -2487,7 +4897,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>73</v>
       </c>
@@ -2495,7 +4905,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>139</v>
       </c>
@@ -2503,7 +4913,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>4</v>
       </c>
@@ -2511,7 +4921,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>35</v>
       </c>
@@ -2519,7 +4929,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>5</v>
       </c>
@@ -2527,7 +4937,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>74</v>
       </c>
@@ -2535,7 +4945,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>75</v>
       </c>
@@ -2543,7 +4953,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>76</v>
       </c>
@@ -2551,7 +4961,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>77</v>
       </c>
@@ -2559,7 +4969,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>78</v>
       </c>
@@ -2567,7 +4977,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>79</v>
       </c>
@@ -2575,7 +4985,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>80</v>
       </c>
@@ -2583,7 +4993,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>140</v>
       </c>
@@ -2591,7 +5001,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>7</v>
       </c>
@@ -2599,7 +5009,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>83</v>
       </c>
@@ -2607,7 +5017,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>84</v>
       </c>
@@ -2615,7 +5025,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>85</v>
       </c>
@@ -2623,7 +5033,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>48</v>
       </c>
@@ -2631,7 +5041,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>9</v>
       </c>
@@ -2639,7 +5049,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>141</v>
       </c>
@@ -2647,7 +5057,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>142</v>
       </c>
@@ -2655,7 +5065,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>87</v>
       </c>
@@ -2663,7 +5073,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>10</v>
       </c>
@@ -2671,7 +5081,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>11</v>
       </c>
@@ -2679,7 +5089,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>88</v>
       </c>
@@ -2687,7 +5097,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>89</v>
       </c>
@@ -2695,7 +5105,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>143</v>
       </c>
@@ -2703,7 +5113,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>144</v>
       </c>
@@ -2711,7 +5121,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>145</v>
       </c>
@@ -2719,7 +5129,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>146</v>
       </c>
@@ -2727,7 +5137,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>92</v>
       </c>
@@ -2735,7 +5145,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>93</v>
       </c>
@@ -2743,7 +5153,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>94</v>
       </c>
@@ -2751,7 +5161,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>95</v>
       </c>
@@ -2759,7 +5169,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>13</v>
       </c>
@@ -2767,7 +5177,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>96</v>
       </c>
@@ -2775,7 +5185,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>97</v>
       </c>
@@ -2783,7 +5193,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>15</v>
       </c>
@@ -2791,7 +5201,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>16</v>
       </c>
@@ -2799,7 +5209,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>98</v>
       </c>
@@ -2807,7 +5217,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>147</v>
       </c>
@@ -2815,7 +5225,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>50</v>
       </c>
@@ -2823,7 +5233,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>39</v>
       </c>
@@ -2831,7 +5241,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>51</v>
       </c>
@@ -2839,7 +5249,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>148</v>
       </c>
@@ -2847,7 +5257,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>99</v>
       </c>
@@ -2855,7 +5265,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>100</v>
       </c>
@@ -2863,7 +5273,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>17</v>
       </c>
@@ -2871,7 +5281,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>101</v>
       </c>
@@ -2879,7 +5289,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>102</v>
       </c>
@@ -2887,7 +5297,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>149</v>
       </c>
@@ -2895,7 +5305,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>150</v>
       </c>
@@ -2903,7 +5313,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>151</v>
       </c>
@@ -2911,7 +5321,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>152</v>
       </c>
@@ -2919,7 +5329,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>153</v>
       </c>
@@ -2927,7 +5337,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>103</v>
       </c>
@@ -2935,7 +5345,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>104</v>
       </c>
@@ -2943,7 +5353,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>105</v>
       </c>
@@ -2951,7 +5361,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>106</v>
       </c>
@@ -2959,7 +5369,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>20</v>
       </c>
@@ -2967,7 +5377,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>109</v>
       </c>
@@ -2975,7 +5385,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>112</v>
       </c>
@@ -2983,7 +5393,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>21</v>
       </c>
@@ -2991,7 +5401,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>113</v>
       </c>
@@ -2999,7 +5409,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>114</v>
       </c>
@@ -3007,7 +5417,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>154</v>
       </c>
@@ -3015,7 +5425,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>115</v>
       </c>
@@ -3023,7 +5433,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>25</v>
       </c>
@@ -3031,7 +5441,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>41</v>
       </c>
@@ -3039,7 +5449,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>26</v>
       </c>
@@ -3047,7 +5457,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>117</v>
       </c>
@@ -3055,7 +5465,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>118</v>
       </c>
@@ -3063,7 +5473,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>119</v>
       </c>
@@ -3071,7 +5481,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>120</v>
       </c>
@@ -3079,7 +5489,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>28</v>
       </c>
@@ -3087,7 +5497,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>121</v>
       </c>
@@ -3095,7 +5505,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>122</v>
       </c>
@@ -3103,7 +5513,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>123</v>
       </c>
@@ -3111,7 +5521,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>155</v>
       </c>
@@ -3119,7 +5529,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>125</v>
       </c>
@@ -3127,7 +5537,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>126</v>
       </c>
@@ -3135,7 +5545,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>127</v>
       </c>
@@ -3143,7 +5553,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>128</v>
       </c>
@@ -3151,7 +5561,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>156</v>
       </c>
@@ -3159,7 +5569,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>129</v>
       </c>
@@ -3167,7 +5577,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>157</v>
       </c>
@@ -3175,7 +5585,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>27</v>
       </c>
@@ -3183,7 +5593,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>58</v>
       </c>
@@ -3191,7 +5601,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>131</v>
       </c>
@@ -3199,7 +5609,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>132</v>
       </c>
@@ -3207,7 +5617,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>29</v>
       </c>
@@ -3215,7 +5625,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>158</v>
       </c>
@@ -3223,7 +5633,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>42</v>
       </c>
@@ -3231,7 +5641,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>159</v>
       </c>
@@ -3239,7 +5649,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>133</v>
       </c>
@@ -3247,7 +5657,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>160</v>
       </c>
@@ -3255,7 +5665,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>134</v>
       </c>
@@ -3263,7 +5673,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>43</v>
       </c>
@@ -3271,7 +5681,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>44</v>
       </c>
@@ -3279,7 +5689,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>135</v>
       </c>
@@ -3287,7 +5697,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>136</v>
       </c>
@@ -3295,7 +5705,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>161</v>
       </c>
@@ -3303,7 +5713,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>60</v>
       </c>
@@ -3311,7 +5721,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>30</v>
       </c>
@@ -3319,7 +5729,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>162</v>
       </c>
@@ -3327,7 +5737,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>163</v>
       </c>
@@ -3335,7 +5745,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>164</v>
       </c>
@@ -3343,7 +5753,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>62</v>
       </c>
@@ -3351,7 +5761,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>165</v>
       </c>
@@ -3359,7 +5769,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>166</v>
       </c>
@@ -3367,7 +5777,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>167</v>
       </c>
@@ -3375,7 +5785,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>31</v>
       </c>
@@ -3387,4 +5797,92 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E56DDDFF-4ECE-4763-852C-BE22621A9F71}">
+  <dimension ref="A3:B9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="68.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B3" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="4">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="4">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B7" s="4">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B8" s="4">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="B9" s="4">
+        <v>308</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A2504A1-D85A-48E2-BCE8-8CD78F8512A2}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>